--- a/08_Protect_Mode/19 PDE_PTE属性位 页保护机制.xlsx
+++ b/08_Protect_Mode/19 PDE_PTE属性位 页保护机制.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284134B1-B2E0-4D2C-A37D-8D6399C7165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D22281A-DE65-42B0-A673-4EB57F249AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>PDE和PTE的属性位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1184,6 +1183,14 @@
       </rPr>
       <t>才能讲 此处略过。。。</t>
     </r>
+  </si>
+  <si>
+    <t>PTE(PDE)的基址 有20位，意味着他可以指向2^20个页表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要想访问更大内存空间(&gt;4g) 增加更多物理地址，将PTE的基址位增加即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2162,20 +2169,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>61</v>
       </c>
@@ -2184,22 +2191,28 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="M4" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M5" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>4</v>
       </c>
@@ -2209,47 +2222,47 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C24" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>67</v>
       </c>
@@ -2272,9 +2285,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2282,7 +2295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2293,7 +2306,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2317,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2313,7 +2326,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2324,7 +2337,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2335,7 +2348,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2344,7 +2357,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2355,7 +2368,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
@@ -2369,7 +2382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
@@ -2383,7 +2396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
@@ -2397,7 +2410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
@@ -2411,7 +2424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
@@ -2425,7 +2438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
@@ -2439,7 +2452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
@@ -2453,7 +2466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +2478,7 @@
       <c r="H18" s="6"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
@@ -2476,7 +2489,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
@@ -2487,7 +2500,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>7</v>
       </c>
@@ -2498,7 +2511,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -2507,12 +2520,12 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K26" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K27" s="10" t="s">
         <v>30</v>
       </c>
@@ -2533,9 +2546,9 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:10" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="19.8" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2543,7 +2556,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2556,7 +2569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2569,7 +2582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2580,7 +2593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
@@ -2593,7 +2606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2619,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
@@ -2619,7 +2632,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
@@ -2632,7 +2645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -2645,7 +2658,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
@@ -2655,7 +2668,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
@@ -2665,7 +2678,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
@@ -2675,7 +2688,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
@@ -2685,7 +2698,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>39</v>
       </c>
@@ -2695,7 +2708,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
@@ -2705,7 +2718,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>48</v>
       </c>
@@ -2715,7 +2728,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>50</v>
       </c>
@@ -2725,7 +2738,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2733,7 +2746,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2756,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
@@ -2753,7 +2766,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>46</v>
       </c>
@@ -2763,7 +2776,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>43</v>
       </c>
@@ -2773,7 +2786,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>44</v>
       </c>
@@ -2783,7 +2796,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
@@ -2793,7 +2806,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
@@ -2803,7 +2816,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>34</v>
       </c>
@@ -2813,7 +2826,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
@@ -2823,7 +2836,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
@@ -2833,7 +2846,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
@@ -2843,7 +2856,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>49</v>
       </c>
@@ -2853,7 +2866,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>8</v>
       </c>
@@ -2863,7 +2876,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>45</v>
       </c>
@@ -2873,7 +2886,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>8</v>
       </c>
@@ -2883,7 +2896,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>15</v>
       </c>
@@ -2893,7 +2906,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>7</v>
       </c>

--- a/08_Protect_Mode/19 PDE_PTE属性位 页保护机制.xlsx
+++ b/08_Protect_Mode/19 PDE_PTE属性位 页保护机制.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D22281A-DE65-42B0-A673-4EB57F249AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BD3BE-2DFD-484B-A65D-DC9997047AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>PDE和PTE的属性位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1190,6 +1190,18 @@
   </si>
   <si>
     <t>要想访问更大内存空间(&gt;4g) 增加更多物理地址，将PTE的基址位增加即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为后面我们修改了这个线性地址对应的PDE,PTE的属性位，但是TLB如果存有它，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并没更新，就会蓝屏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invlpg [8003f008h]， 在TLB中删除 这条线性地址为8003f008h的数据，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2171,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2542,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750E7022-84F5-4CA1-BEB3-3BF34DE2FD90}">
   <dimension ref="B3:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2708,7 +2720,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
@@ -2718,7 +2730,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>48</v>
       </c>
@@ -2728,7 +2740,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>50</v>
       </c>
@@ -2738,7 +2750,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2746,7 +2758,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
@@ -2756,7 +2768,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
@@ -2766,7 +2778,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>46</v>
       </c>
@@ -2775,8 +2787,11 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>43</v>
       </c>
@@ -2785,8 +2800,11 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>44</v>
       </c>
@@ -2795,8 +2813,11 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
@@ -2806,7 +2827,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
@@ -2816,7 +2837,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>34</v>
       </c>
@@ -2826,7 +2847,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
@@ -2836,7 +2857,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
@@ -2846,7 +2867,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
@@ -2856,7 +2877,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="2:7" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>49</v>
       </c>
